--- a/biology/Botanique/Salix_pyrifolia/Salix_pyrifolia.xlsx
+++ b/biology/Botanique/Salix_pyrifolia/Salix_pyrifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Salix pyrifolia ou Balsam willow, le Saule à feuilles de poirier, est une espèce de saule de la famille des Salicaceae, originaire d'Amérique du Nord, découverte au Canada[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salix pyrifolia ou Balsam willow, le Saule à feuilles de poirier, est une espèce de saule de la famille des Salicaceae, originaire d'Amérique du Nord, découverte au Canada.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix balsamifera ;
 Salix balsamifera var. alpestris ;
@@ -546,10 +560,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Saule à feuilles de poirier est un buisson touffu possédant des feuilles seulement en partie supérieure et atteignant généralement de 1 à 2 mètres. Les feuilles mesurent de 5 à 8 cm de longueur pour une largeur de 25 à 40 mm et dégagent une odeur balsamique (d'où le nom de Balsam willow). Elles sont ovales ou ovales-lancéolées, larges, arrondies à la base, à nervation fortement réticulée. Les fleurs paraissent avec les feuilles, au printemps. Le lieu de prédilection correspond à un milieu de tourbières ou rochers très acides en général. Cette espèce est parfois confondue avec le Salix discolor.
-C'est le saule spécial de la partie tempérée du Québec, particulièrement de la plaine basse. Il est bien représenté en Nouvelle-Angleterre. Il est nettement caractérisé par ses feuilles dont les nervures forment un réseau très marqué et ne peut se confondre avec aucun autre[3],[4].
+C'est le saule spécial de la partie tempérée du Québec, particulièrement de la plaine basse. Il est bien représenté en Nouvelle-Angleterre. Il est nettement caractérisé par ses feuilles dont les nervures forment un réseau très marqué et ne peut se confondre avec aucun autre,.
 </t>
         </is>
       </c>
